--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Arun Vijo\OneDrive\Desktop\CSB Projects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{121BF807-250D-4030-BED9-FBB75CFDBFE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EE68366-F98C-47E1-8B21-1AC34FD1AEE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{EDAA94A0-CD14-4245-A831-2C96FA886B80}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$T$50</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$T$57</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="59">
   <si>
     <t>BRANCH_CODE</t>
   </si>
@@ -210,6 +210,12 @@
   </si>
   <si>
     <t>Fixed</t>
+  </si>
+  <si>
+    <t>MSME Digital Shop</t>
+  </si>
+  <si>
+    <t>MSME Textile Shop</t>
   </si>
 </sst>
 </file>
@@ -592,10 +598,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0209509-9E10-487F-852F-2BCF23892251}">
-  <dimension ref="A1:T50"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:T57"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="R17" sqref="R17"/>
+      <selection activeCell="Q57" sqref="Q57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -682,7 +689,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>274834</v>
       </c>
@@ -744,7 +751,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>289384</v>
       </c>
@@ -806,7 +813,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>103934</v>
       </c>
@@ -868,7 +875,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>118484</v>
       </c>
@@ -930,7 +937,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>133034</v>
       </c>
@@ -992,7 +999,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>147584</v>
       </c>
@@ -1054,7 +1061,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>162134</v>
       </c>
@@ -1151,7 +1158,7 @@
         <v>1234</v>
       </c>
       <c r="L9">
-        <v>21631</v>
+        <v>31928</v>
       </c>
       <c r="M9">
         <v>28791</v>
@@ -1178,7 +1185,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>191234</v>
       </c>
@@ -1240,7 +1247,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>205784</v>
       </c>
@@ -1302,7 +1309,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>220334</v>
       </c>
@@ -1364,7 +1371,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>234884</v>
       </c>
@@ -1488,7 +1495,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>263984</v>
       </c>
@@ -1550,7 +1557,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>278534</v>
       </c>
@@ -1612,7 +1619,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>293084</v>
       </c>
@@ -1674,7 +1681,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>307634</v>
       </c>
@@ -1736,7 +1743,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>322184</v>
       </c>
@@ -1798,7 +1805,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>336734</v>
       </c>
@@ -1860,7 +1867,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>351284</v>
       </c>
@@ -1922,7 +1929,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>365834</v>
       </c>
@@ -2001,7 +2008,7 @@
         <v>48</v>
       </c>
       <c r="F23" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="G23">
         <v>898523</v>
@@ -2046,7 +2053,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>394934</v>
       </c>
@@ -2108,7 +2115,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>409484</v>
       </c>
@@ -2170,7 +2177,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>424034</v>
       </c>
@@ -2232,7 +2239,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>438584</v>
       </c>
@@ -2294,7 +2301,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>453134</v>
       </c>
@@ -2356,7 +2363,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>467684</v>
       </c>
@@ -2418,7 +2425,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>482234</v>
       </c>
@@ -2480,7 +2487,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>496784</v>
       </c>
@@ -2542,7 +2549,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>511334</v>
       </c>
@@ -2604,7 +2611,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>525884</v>
       </c>
@@ -2666,7 +2673,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>540434</v>
       </c>
@@ -2728,7 +2735,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>554984</v>
       </c>
@@ -2790,7 +2797,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>569534</v>
       </c>
@@ -2852,7 +2859,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>584084</v>
       </c>
@@ -2914,7 +2921,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>598634</v>
       </c>
@@ -2976,7 +2983,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>613184</v>
       </c>
@@ -3038,7 +3045,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>627734</v>
       </c>
@@ -3100,7 +3107,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>642284</v>
       </c>
@@ -3162,7 +3169,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>656834</v>
       </c>
@@ -3259,7 +3266,7 @@
         <v>5678</v>
       </c>
       <c r="L43">
-        <v>100205</v>
+        <v>10205</v>
       </c>
       <c r="M43">
         <v>142147</v>
@@ -3286,7 +3293,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>685934</v>
       </c>
@@ -3348,7 +3355,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>700484</v>
       </c>
@@ -3410,7 +3417,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>715034</v>
       </c>
@@ -3489,7 +3496,7 @@
         <v>48</v>
       </c>
       <c r="F47" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="G47">
         <v>1870739</v>
@@ -3507,7 +3514,7 @@
         <v>3691</v>
       </c>
       <c r="L47">
-        <v>109449</v>
+        <v>19449</v>
       </c>
       <c r="M47">
         <v>155483</v>
@@ -3534,7 +3541,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>744134</v>
       </c>
@@ -3596,7 +3603,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>758684</v>
       </c>
@@ -3658,7 +3665,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>773234</v>
       </c>
@@ -3720,8 +3727,448 @@
         <v>35</v>
       </c>
     </row>
+    <row r="51" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>554984</v>
+      </c>
+      <c r="B51" t="s">
+        <v>38</v>
+      </c>
+      <c r="C51" t="s">
+        <v>41</v>
+      </c>
+      <c r="D51">
+        <v>1095218</v>
+      </c>
+      <c r="E51" t="s">
+        <v>46</v>
+      </c>
+      <c r="F51" t="s">
+        <v>52</v>
+      </c>
+      <c r="G51">
+        <v>1384631</v>
+      </c>
+      <c r="H51">
+        <v>83482</v>
+      </c>
+      <c r="I51" t="s">
+        <v>53</v>
+      </c>
+      <c r="J51">
+        <v>4343</v>
+      </c>
+      <c r="K51">
+        <v>3233</v>
+      </c>
+      <c r="L51">
+        <v>81717</v>
+      </c>
+      <c r="M51">
+        <v>115475</v>
+      </c>
+      <c r="N51">
+        <v>28.9</v>
+      </c>
+      <c r="O51" s="3">
+        <v>41774</v>
+      </c>
+      <c r="P51">
+        <v>373</v>
+      </c>
+      <c r="Q51">
+        <v>72184</v>
+      </c>
+      <c r="R51" t="s">
+        <v>54</v>
+      </c>
+      <c r="S51">
+        <v>472</v>
+      </c>
+      <c r="T51" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="52" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>569534</v>
+      </c>
+      <c r="B52" t="s">
+        <v>39</v>
+      </c>
+      <c r="C52" t="s">
+        <v>44</v>
+      </c>
+      <c r="D52">
+        <v>1127105</v>
+      </c>
+      <c r="E52" t="s">
+        <v>47</v>
+      </c>
+      <c r="F52" t="s">
+        <v>52</v>
+      </c>
+      <c r="G52">
+        <v>1425140</v>
+      </c>
+      <c r="H52">
+        <v>85785</v>
+      </c>
+      <c r="I52" t="s">
+        <v>53</v>
+      </c>
+      <c r="J52">
+        <v>4343</v>
+      </c>
+      <c r="K52">
+        <v>6666</v>
+      </c>
+      <c r="L52">
+        <v>84028</v>
+      </c>
+      <c r="M52">
+        <v>118809</v>
+      </c>
+      <c r="N52">
+        <v>29.5</v>
+      </c>
+      <c r="O52" s="3">
+        <v>41775</v>
+      </c>
+      <c r="P52">
+        <v>383</v>
+      </c>
+      <c r="Q52">
+        <v>74134</v>
+      </c>
+      <c r="R52" t="s">
+        <v>56</v>
+      </c>
+      <c r="S52">
+        <v>485</v>
+      </c>
+      <c r="T52" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="53" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>584084</v>
+      </c>
+      <c r="B53" t="s">
+        <v>40</v>
+      </c>
+      <c r="C53" t="s">
+        <v>42</v>
+      </c>
+      <c r="D53">
+        <v>1158992</v>
+      </c>
+      <c r="E53" t="s">
+        <v>48</v>
+      </c>
+      <c r="F53" t="s">
+        <v>58</v>
+      </c>
+      <c r="G53">
+        <v>1465649</v>
+      </c>
+      <c r="H53">
+        <v>88088</v>
+      </c>
+      <c r="I53" t="s">
+        <v>53</v>
+      </c>
+      <c r="J53">
+        <v>4343</v>
+      </c>
+      <c r="K53">
+        <v>5555</v>
+      </c>
+      <c r="L53">
+        <v>86339</v>
+      </c>
+      <c r="M53">
+        <v>122143</v>
+      </c>
+      <c r="N53">
+        <v>30.1</v>
+      </c>
+      <c r="O53" s="3">
+        <v>41776</v>
+      </c>
+      <c r="P53">
+        <v>393</v>
+      </c>
+      <c r="Q53">
+        <v>76084</v>
+      </c>
+      <c r="R53" t="s">
+        <v>54</v>
+      </c>
+      <c r="S53">
+        <v>498</v>
+      </c>
+      <c r="T53" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="54" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>598634</v>
+      </c>
+      <c r="B54" t="s">
+        <v>36</v>
+      </c>
+      <c r="C54" t="s">
+        <v>41</v>
+      </c>
+      <c r="D54">
+        <v>1190879</v>
+      </c>
+      <c r="E54" t="s">
+        <v>49</v>
+      </c>
+      <c r="F54" t="s">
+        <v>51</v>
+      </c>
+      <c r="G54">
+        <v>1506158</v>
+      </c>
+      <c r="H54">
+        <v>90391</v>
+      </c>
+      <c r="I54" t="s">
+        <v>53</v>
+      </c>
+      <c r="J54">
+        <v>4343</v>
+      </c>
+      <c r="K54">
+        <v>4444</v>
+      </c>
+      <c r="L54">
+        <v>88650</v>
+      </c>
+      <c r="M54">
+        <v>125477</v>
+      </c>
+      <c r="N54">
+        <v>30.7</v>
+      </c>
+      <c r="O54" s="3">
+        <v>41777</v>
+      </c>
+      <c r="P54">
+        <v>403</v>
+      </c>
+      <c r="Q54">
+        <v>78034</v>
+      </c>
+      <c r="R54" t="s">
+        <v>55</v>
+      </c>
+      <c r="S54">
+        <v>511</v>
+      </c>
+      <c r="T54" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="55" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>613184</v>
+      </c>
+      <c r="B55" t="s">
+        <v>37</v>
+      </c>
+      <c r="C55" t="s">
+        <v>42</v>
+      </c>
+      <c r="D55">
+        <v>1222766</v>
+      </c>
+      <c r="E55" t="s">
+        <v>48</v>
+      </c>
+      <c r="F55" t="s">
+        <v>51</v>
+      </c>
+      <c r="G55">
+        <v>1546667</v>
+      </c>
+      <c r="H55">
+        <v>92694</v>
+      </c>
+      <c r="I55" t="s">
+        <v>53</v>
+      </c>
+      <c r="J55">
+        <v>4343</v>
+      </c>
+      <c r="K55">
+        <v>3333</v>
+      </c>
+      <c r="L55">
+        <v>90961</v>
+      </c>
+      <c r="M55">
+        <v>128811</v>
+      </c>
+      <c r="N55">
+        <v>31.3000000000001</v>
+      </c>
+      <c r="O55" s="3">
+        <v>41778</v>
+      </c>
+      <c r="P55">
+        <v>413</v>
+      </c>
+      <c r="Q55">
+        <v>79984</v>
+      </c>
+      <c r="R55" t="s">
+        <v>56</v>
+      </c>
+      <c r="S55">
+        <v>524</v>
+      </c>
+      <c r="T55" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="56" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>627734</v>
+      </c>
+      <c r="B56" t="s">
+        <v>36</v>
+      </c>
+      <c r="C56" t="s">
+        <v>43</v>
+      </c>
+      <c r="D56">
+        <v>1254653</v>
+      </c>
+      <c r="E56" t="s">
+        <v>47</v>
+      </c>
+      <c r="F56" t="s">
+        <v>52</v>
+      </c>
+      <c r="G56">
+        <v>1587176</v>
+      </c>
+      <c r="H56">
+        <v>94997</v>
+      </c>
+      <c r="I56" t="s">
+        <v>53</v>
+      </c>
+      <c r="J56">
+        <v>4343</v>
+      </c>
+      <c r="K56">
+        <v>2222</v>
+      </c>
+      <c r="L56">
+        <v>93272</v>
+      </c>
+      <c r="M56">
+        <v>132145</v>
+      </c>
+      <c r="N56">
+        <v>31.900000000000102</v>
+      </c>
+      <c r="O56" s="3">
+        <v>41779</v>
+      </c>
+      <c r="P56">
+        <v>423</v>
+      </c>
+      <c r="Q56">
+        <v>81934</v>
+      </c>
+      <c r="R56" t="s">
+        <v>54</v>
+      </c>
+      <c r="S56">
+        <v>537</v>
+      </c>
+      <c r="T56" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="57" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>642284</v>
+      </c>
+      <c r="B57" t="s">
+        <v>38</v>
+      </c>
+      <c r="C57" t="s">
+        <v>41</v>
+      </c>
+      <c r="D57">
+        <v>1286540</v>
+      </c>
+      <c r="E57" t="s">
+        <v>45</v>
+      </c>
+      <c r="F57" t="s">
+        <v>52</v>
+      </c>
+      <c r="G57">
+        <v>1627685</v>
+      </c>
+      <c r="H57">
+        <v>97300</v>
+      </c>
+      <c r="I57" t="s">
+        <v>53</v>
+      </c>
+      <c r="J57">
+        <v>4343</v>
+      </c>
+      <c r="K57">
+        <v>1111</v>
+      </c>
+      <c r="L57">
+        <v>95583</v>
+      </c>
+      <c r="M57">
+        <v>135479</v>
+      </c>
+      <c r="N57">
+        <v>32.500000000000099</v>
+      </c>
+      <c r="O57" s="3">
+        <v>41780</v>
+      </c>
+      <c r="P57">
+        <v>433</v>
+      </c>
+      <c r="Q57">
+        <v>83884</v>
+      </c>
+      <c r="R57" t="s">
+        <v>56</v>
+      </c>
+      <c r="S57">
+        <v>550</v>
+      </c>
+      <c r="T57" t="s">
+        <v>26</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:T50" xr:uid="{F0209509-9E10-487F-852F-2BCF23892251}"/>
+  <autoFilter ref="A1:T57" xr:uid="{F0209509-9E10-487F-852F-2BCF23892251}">
+    <filterColumn colId="19">
+      <filters>
+        <filter val="SME &amp; MSME"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>